--- a/inferences/jesuita-entrada_totals.xlsx
+++ b/inferences/jesuita-entrada_totals.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet_name_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_name_1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/inferences/jesuita-entrada_totals.xlsx
+++ b/inferences/jesuita-entrada_totals.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_name_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet_name_1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,11 +482,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15440000</t>
+          <t>1544</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15460000</t>
+          <t>1546</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15480000</t>
+          <t>1548</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17360000</t>
+          <t>1736</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16280000</t>
+          <t>1628</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>16780000</t>
+          <t>1678</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16270000</t>
+          <t>1627</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>15820000</t>
+          <t>1582</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2166,12 +2166,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16410000</t>
+          <t>1641</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>16410000</t>
+          <t>1641</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2686,12 +2686,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>000000</t>
+          <t>00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>000000</t>
+          <t>00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -2830,12 +2830,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>16100000</t>
+          <t>1610</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>16100000</t>
+          <t>1610</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3110,12 +3110,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>15530000</t>
+          <t>1553</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>15530000</t>
+          <t>1553</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
